--- a/output/StructureDefinition-mindfulness-observation.xlsx
+++ b/output/StructureDefinition-mindfulness-observation.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-26T10:45:41+00:00</t>
+    <t>2024-12-26T11:41:10+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-mindfulness-observation.xlsx
+++ b/output/StructureDefinition-mindfulness-observation.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-26T11:41:10+00:00</t>
+    <t>2024-12-27T22:28:35+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-mindfulness-observation.xlsx
+++ b/output/StructureDefinition-mindfulness-observation.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-27T22:28:35+00:00</t>
+    <t>2025-01-02T17:46:41+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-mindfulness-observation.xlsx
+++ b/output/StructureDefinition-mindfulness-observation.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-02T17:46:41+00:00</t>
+    <t>2025-01-02T19:32:36+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1766,7 +1766,7 @@
     <t>Observation.component:moodState.value[x]</t>
   </si>
   <si>
-    <t>https://github.com/RicardoLSantos/shorthand/ValueSet/mood-vs</t>
+    <t>http://example.org/fhir/ValueSet/mood</t>
   </si>
   <si>
     <t>Observation.component:moodState.dataAbsentReason</t>
@@ -2204,7 +2204,7 @@
     <col min="23" max="23" width="17.40234375" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="16.9609375" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="61.7265625" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="60.40234375" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="51.16015625" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="5.8828125" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="20.84375" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="40.0859375" customWidth="true" bestFit="true"/>

--- a/output/StructureDefinition-mindfulness-observation.xlsx
+++ b/output/StructureDefinition-mindfulness-observation.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-02T19:32:36+00:00</t>
+    <t>2025-01-03T09:54:59+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-mindfulness-observation.xlsx
+++ b/output/StructureDefinition-mindfulness-observation.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-03T09:54:59+00:00</t>
+    <t>2025-01-04T21:28:42+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-mindfulness-observation.xlsx
+++ b/output/StructureDefinition-mindfulness-observation.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-04T21:28:42+00:00</t>
+    <t>2025-01-04T22:09:55+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-mindfulness-observation.xlsx
+++ b/output/StructureDefinition-mindfulness-observation.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-04T22:09:55+00:00</t>
+    <t>2025-01-04T22:27:27+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-mindfulness-observation.xlsx
+++ b/output/StructureDefinition-mindfulness-observation.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-04T22:27:27+00:00</t>
+    <t>2025-01-04T22:47:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-mindfulness-observation.xlsx
+++ b/output/StructureDefinition-mindfulness-observation.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-04T22:47:01+00:00</t>
+    <t>2025-01-14T13:24:18+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-mindfulness-observation.xlsx
+++ b/output/StructureDefinition-mindfulness-observation.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-14T13:24:18+00:00</t>
+    <t>2025-01-24T12:30:11+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-mindfulness-observation.xlsx
+++ b/output/StructureDefinition-mindfulness-observation.xlsx
@@ -27,7 +27,7 @@
     <t>URL</t>
   </si>
   <si>
-    <t>https://github.com/RicardoLSantos/shorthand/StructureDefinition/mindfulness-observation</t>
+    <t>https://2rdoc.pt/ig/ios-lifestyle-medicine/StructureDefinition/mindfulness-observation</t>
   </si>
   <si>
     <t>Version</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-24T12:30:11+00:00</t>
+    <t>2025-08-20T10:40:04+01:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1766,7 +1766,7 @@
     <t>Observation.component:moodState.value[x]</t>
   </si>
   <si>
-    <t>http://example.org/fhir/ValueSet/mood</t>
+    <t>https://2rdoc.pt/fhir/ValueSet/mood</t>
   </si>
   <si>
     <t>Observation.component:moodState.dataAbsentReason</t>
@@ -1841,7 +1841,7 @@
     <t>Observation.component:mindfulnessType.value[x]</t>
   </si>
   <si>
-    <t>http://example.org/ValueSet/mindfulness-type</t>
+    <t>https://2rdoc.pt/fhir/ValueSet/mindfulness-type</t>
   </si>
   <si>
     <t>Observation.component:mindfulnessType.dataAbsentReason</t>
@@ -2179,17 +2179,17 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="57.421875" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="42.9296875" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="18.46484375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="38.4609375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="6.1484375" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="4.58203125" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="4.94140625" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="14.7109375" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="12.1875" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="49.53515625" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="37.03125" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="15.92578125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="33.17578125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="5.30078125" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="3.953125" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="4.265625" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="12.6875" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="10.51171875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="107.140625" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="92.421875" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -2198,31 +2198,31 @@
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="9.04296875" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="15.77734375" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="16.13671875" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="17.40234375" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="16.9609375" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="61.7265625" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="51.16015625" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="5.8828125" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="20.84375" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="40.0859375" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="15.703125" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="13.125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="39.421875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="9.53125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="9.890625" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="7.80078125" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="13.609375" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="13.91796875" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="15.01171875" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="14.62890625" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="53.24609375" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="44.1328125" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="5.07421875" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="17.98046875" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="34.578125" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="13.54296875" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="11.3203125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="34.0078125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="8.22265625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="8.53125" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="37" max="37" width="37.29296875" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="33.6328125" customWidth="true" bestFit="true"/>
-    <col min="39" max="39" width="33.01953125" customWidth="true" bestFit="true"/>
-    <col min="40" max="40" width="26.69140625" customWidth="true" bestFit="true"/>
-    <col min="41" max="41" width="245.78125" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="32.16796875" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="29.015625" customWidth="true" bestFit="true"/>
+    <col min="39" max="39" width="28.484375" customWidth="true" bestFit="true"/>
+    <col min="40" max="40" width="23.0234375" customWidth="true" bestFit="true"/>
+    <col min="41" max="41" width="212.015625" customWidth="true" bestFit="true"/>
     <col min="42" max="42" width="255.0" customWidth="true" bestFit="true"/>
-    <col min="43" max="43" width="102.73828125" customWidth="true" bestFit="true"/>
-    <col min="44" max="44" width="33.05078125" customWidth="true" bestFit="true"/>
-    <col min="45" max="45" width="38.60546875" customWidth="true" bestFit="true"/>
+    <col min="43" max="43" width="88.625" customWidth="true" bestFit="true"/>
+    <col min="44" max="44" width="28.5078125" customWidth="true" bestFit="true"/>
+    <col min="45" max="45" width="33.30078125" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">

--- a/output/StructureDefinition-mindfulness-observation.xlsx
+++ b/output/StructureDefinition-mindfulness-observation.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-20T10:40:04+01:00</t>
+    <t>2025-08-20T17:48:34+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-mindfulness-observation.xlsx
+++ b/output/StructureDefinition-mindfulness-observation.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4367" uniqueCount="586">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4367" uniqueCount="587">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-01T16:36:18+01:00</t>
+    <t>2025-10-01T23:24:47+01:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -697,9 +697,9 @@
   <si>
     <t>&lt;valueCodeableConcept xmlns="http://hl7.org/fhir"&gt;
   &lt;coding&gt;
-    &lt;system value="http://snomed.info/sct"/&gt;
-    &lt;code value="285854004"/&gt;
-    &lt;display value="Emotion"/&gt;
+    &lt;system value="https://2rdoc.pt/ig/ios-lifestyle-medicine/CodeSystem/lifestyle-observation-cs"/&gt;
+    &lt;code value="mindfulness-session"/&gt;
+    &lt;display value="Mindfulness practice session"/&gt;
   &lt;/coding&gt;
 &lt;/valueCodeableConcept&gt;</t>
   </si>
@@ -1726,8 +1726,8 @@
     <t>&lt;valueCodeableConcept xmlns="http://hl7.org/fhir"&gt;
   &lt;coding&gt;
     &lt;system value="http://snomed.info/sct"/&gt;
-    &lt;code value="725854004"/&gt;
-    &lt;display value="Assessment of stress level"/&gt;
+    &lt;code value="365949003"/&gt;
+    &lt;display value="Health-related behavior finding"/&gt;
   &lt;/coding&gt;
 &lt;/valueCodeableConcept&gt;</t>
   </si>
@@ -1819,9 +1819,9 @@
   <si>
     <t>&lt;valueCodeableConcept xmlns="http://hl7.org/fhir"&gt;
   &lt;coding&gt;
-    &lt;system value="http://snomed.info/sct"/&gt;
-    &lt;code value="363894002"/&gt;
-    &lt;display value="Relaxation therapy"/&gt;
+    &lt;system value="https://2rdoc.pt/ig/ios-lifestyle-medicine/CodeSystem/lifestyle-observation-cs"/&gt;
+    &lt;code value="relaxation-response"/&gt;
+    &lt;display value="Relaxation response observation"/&gt;
   &lt;/coding&gt;
 &lt;/valueCodeableConcept&gt;</t>
   </si>
@@ -1854,6 +1854,15 @@
   </si>
   <si>
     <t>Observation.component:mindfulnessType.code</t>
+  </si>
+  <si>
+    <t>&lt;valueCodeableConcept xmlns="http://hl7.org/fhir"&gt;
+  &lt;coding&gt;
+    &lt;system value="https://2rdoc.pt/ig/ios-lifestyle-medicine/CodeSystem/lifestyle-observation-cs"/&gt;
+    &lt;code value="mindfulness-type"/&gt;
+    &lt;display value="Type of mindfulness practice"/&gt;
+  &lt;/coding&gt;
+&lt;/valueCodeableConcept&gt;</t>
   </si>
   <si>
     <t>Observation.component:mindfulnessType.value[x]</t>
@@ -15208,7 +15217,7 @@
         <v>90</v>
       </c>
       <c r="S100" t="s" s="2">
-        <v>218</v>
+        <v>581</v>
       </c>
       <c r="T100" t="s" s="2">
         <v>90</v>
@@ -15291,7 +15300,7 @@
     </row>
     <row r="101" hidden="true">
       <c r="A101" t="s" s="2">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="B101" t="s" s="2">
         <v>456</v>
@@ -15358,7 +15367,7 @@
       </c>
       <c r="Y101" s="2"/>
       <c r="Z101" t="s" s="2">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="AA101" t="s" s="2">
         <v>90</v>
@@ -15420,7 +15429,7 @@
     </row>
     <row r="102" hidden="true">
       <c r="A102" t="s" s="2">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="B102" t="s" s="2">
         <v>460</v>
@@ -15551,7 +15560,7 @@
     </row>
     <row r="103" hidden="true">
       <c r="A103" t="s" s="2">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="B103" t="s" s="2">
         <v>464</v>
@@ -15682,7 +15691,7 @@
     </row>
     <row r="104" hidden="true">
       <c r="A104" t="s" s="2">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="B104" t="s" s="2">
         <v>465</v>

--- a/output/StructureDefinition-mindfulness-observation.xlsx
+++ b/output/StructureDefinition-mindfulness-observation.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-01T23:24:47+01:00</t>
+    <t>2025-10-02T07:31:55+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-mindfulness-observation.xlsx
+++ b/output/StructureDefinition-mindfulness-observation.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-02T07:31:55+01:00</t>
+    <t>2025-10-02T11:12:29+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-mindfulness-observation.xlsx
+++ b/output/StructureDefinition-mindfulness-observation.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-02T11:12:29+01:00</t>
+    <t>2025-10-02T18:31:12+01:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -3977,7 +3977,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="14" hidden="true">
+    <row r="14">
       <c r="A14" t="s" s="2">
         <v>188</v>
       </c>
@@ -4239,7 +4239,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="16" hidden="true">
+    <row r="16">
       <c r="A16" t="s" s="2">
         <v>212</v>
       </c>
@@ -4370,7 +4370,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="17" hidden="true">
+    <row r="17">
       <c r="A17" t="s" s="2">
         <v>228</v>
       </c>
@@ -4890,7 +4890,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="21" hidden="true">
+    <row r="21">
       <c r="A21" t="s" s="2">
         <v>268</v>
       </c>
@@ -5152,7 +5152,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="23" hidden="true">
+    <row r="23">
       <c r="A23" t="s" s="2">
         <v>279</v>
       </c>
@@ -5281,7 +5281,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="24" hidden="true">
+    <row r="24">
       <c r="A24" t="s" s="2">
         <v>288</v>
       </c>
@@ -15822,12 +15822,12 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:AS104">
-    <filterColumn colId="6">
+    <filterColumn colId="7">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
       </customFilters>
     </filterColumn>
-    <filterColumn colId="26">
+    <filterColumn colId="27">
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>

--- a/output/StructureDefinition-mindfulness-observation.xlsx
+++ b/output/StructureDefinition-mindfulness-observation.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-02T18:31:12+01:00</t>
+    <t>2025-10-03T16:37:46+01:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -9042,7 +9042,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="53" hidden="true">
+    <row r="53">
       <c r="A53" t="s" s="2">
         <v>468</v>
       </c>
@@ -9063,7 +9063,7 @@
         <v>104</v>
       </c>
       <c r="H53" t="s" s="2">
-        <v>90</v>
+        <v>105</v>
       </c>
       <c r="I53" t="s" s="2">
         <v>90</v>
@@ -11124,7 +11124,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="69" hidden="true">
+    <row r="69">
       <c r="A69" t="s" s="2">
         <v>535</v>
       </c>
@@ -11145,7 +11145,7 @@
         <v>104</v>
       </c>
       <c r="H69" t="s" s="2">
-        <v>90</v>
+        <v>105</v>
       </c>
       <c r="I69" t="s" s="2">
         <v>90</v>
@@ -12299,7 +12299,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="78" hidden="true">
+    <row r="78">
       <c r="A78" t="s" s="2">
         <v>549</v>
       </c>
@@ -12320,7 +12320,7 @@
         <v>104</v>
       </c>
       <c r="H78" t="s" s="2">
-        <v>90</v>
+        <v>105</v>
       </c>
       <c r="I78" t="s" s="2">
         <v>90</v>
@@ -13472,7 +13472,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="87" hidden="true">
+    <row r="87">
       <c r="A87" t="s" s="2">
         <v>563</v>
       </c>
@@ -13493,7 +13493,7 @@
         <v>104</v>
       </c>
       <c r="H87" t="s" s="2">
-        <v>90</v>
+        <v>105</v>
       </c>
       <c r="I87" t="s" s="2">
         <v>90</v>
@@ -14647,7 +14647,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="96" hidden="true">
+    <row r="96">
       <c r="A96" t="s" s="2">
         <v>575</v>
       </c>
@@ -14668,7 +14668,7 @@
         <v>104</v>
       </c>
       <c r="H96" t="s" s="2">
-        <v>90</v>
+        <v>105</v>
       </c>
       <c r="I96" t="s" s="2">
         <v>90</v>

--- a/output/StructureDefinition-mindfulness-observation.xlsx
+++ b/output/StructureDefinition-mindfulness-observation.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-03T16:37:46+01:00</t>
+    <t>2025-11-27T11:57:11+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-mindfulness-observation.xlsx
+++ b/output/StructureDefinition-mindfulness-observation.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-27T11:57:11+00:00</t>
+    <t>2025-11-27T15:44:07+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-mindfulness-observation.xlsx
+++ b/output/StructureDefinition-mindfulness-observation.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-27T17:03:01+00:00</t>
+    <t>2025-11-28T14:35:57+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-mindfulness-observation.xlsx
+++ b/output/StructureDefinition-mindfulness-observation.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-28T14:35:57+00:00</t>
+    <t>2025-11-30T13:08:37+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
